--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.352133112565863</v>
+        <v>3.036978960037231</v>
       </c>
       <c r="B1">
-        <v>2.516466272076322</v>
+        <v>6.341531276702881</v>
       </c>
       <c r="C1">
-        <v>2.711827264154311</v>
+        <v>6.914728164672852</v>
       </c>
       <c r="D1">
-        <v>1.519003379046407</v>
+        <v>7.404232025146484</v>
       </c>
       <c r="E1">
-        <v>0.7551428277798102</v>
+        <v>4.739113807678223</v>
       </c>
     </row>
   </sheetData>
